--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minds\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minds\Desktop\bending\New folder\winner-picker\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDE43C9-A384-4387-9354-BCCF5B431E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E83801-B121-4ACA-8C53-95E4DD25023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,37 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
-  <si>
-    <t>أحمد</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>علي</t>
-  </si>
-  <si>
-    <t>يوسف</t>
-  </si>
-  <si>
-    <t>عبدالله</t>
-  </si>
-  <si>
-    <t>فاطمة</t>
-  </si>
-  <si>
-    <t>خديجة</t>
-  </si>
-  <si>
-    <t>زينب</t>
-  </si>
-  <si>
-    <t>عائشة</t>
-  </si>
-  <si>
-    <t>عمر</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
   <si>
     <t>الملك عبدالعزيز</t>
   </si>
@@ -61,45 +31,6 @@
     <t>القصر</t>
   </si>
   <si>
-    <t>مركز 1</t>
-  </si>
-  <si>
-    <t>مركز 2</t>
-  </si>
-  <si>
-    <t>مركز 3</t>
-  </si>
-  <si>
-    <t>0500000001</t>
-  </si>
-  <si>
-    <t>0500000002</t>
-  </si>
-  <si>
-    <t>0500000003</t>
-  </si>
-  <si>
-    <t>0500000004</t>
-  </si>
-  <si>
-    <t>0500000005</t>
-  </si>
-  <si>
-    <t>0500000006</t>
-  </si>
-  <si>
-    <t>0500000007</t>
-  </si>
-  <si>
-    <t>0500000008</t>
-  </si>
-  <si>
-    <t>0500000009</t>
-  </si>
-  <si>
-    <t>0500000010</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -113,13 +44,286 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سليمان عبدالحكيم سليمان السليمان </t>
+  </si>
+  <si>
+    <t>سعود عبدالعزيز عبدالرحمن العميري</t>
+  </si>
+  <si>
+    <t>عبدالملك محمد فهيد السبيله</t>
+  </si>
+  <si>
+    <t>هشام ناجي علي المحمدي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نايف إبراهيم العيسى </t>
+  </si>
+  <si>
+    <t>محمد حمد محمد جهوي</t>
+  </si>
+  <si>
+    <t>عمر فراج نصر الشهري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نواف تركي مبارك بن سران </t>
+  </si>
+  <si>
+    <t>ظافر بن بندر بن ظافر الدوسري</t>
+  </si>
+  <si>
+    <t>سلمان بن جهاد عبدالرحمن السلمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبدالله نواف ممدوح الشريم الشمري </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خالد أحمد محمد السرحاني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">إياد صالح علي العريني </t>
+  </si>
+  <si>
+    <t>أحمد سعيد ربيع الزهراني</t>
+  </si>
+  <si>
+    <t>اسامة يوسف حسن الزهراني</t>
+  </si>
+  <si>
+    <t>سعود عبد الله جابر مدخلي</t>
+  </si>
+  <si>
+    <t>سيف سلمان الضليعي المظيبري</t>
+  </si>
+  <si>
+    <t>محمد مزيد صعب التميمي</t>
+  </si>
+  <si>
+    <t>المعتصم بن ناصر ال عباس الشهراني</t>
+  </si>
+  <si>
+    <t>انس تركي محمد الغامدي</t>
+  </si>
+  <si>
+    <t>سعد بن سامي بن سعد الشامي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سليمان عبدالله سليمان السحيباني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد بادي الودعاني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تميم محمد معتوق النمري </t>
+  </si>
+  <si>
+    <t>محمد صالح محمد العواجي</t>
+  </si>
+  <si>
+    <t>عبدالله نواف ضيف الله العنزي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معاذ ابراهيم يحيى الغالبي عسيري </t>
+  </si>
+  <si>
+    <t>مشاري ابراهيم سعد الهويمل</t>
+  </si>
+  <si>
+    <t>عمر بن برجس مترك الحناتيش الدوسري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انس احمد سعد الغامدي </t>
+  </si>
+  <si>
+    <t>نايف بن عدنان بن بخيت المالكي</t>
+  </si>
+  <si>
+    <t>عبدالله محمد عبدالعزيز المحسن</t>
+  </si>
+  <si>
+    <t>عبدالله غبيش دغيليب العتيبي</t>
+  </si>
+  <si>
+    <t>خالد وليد الرحمه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معاذ موسى أحمد العبدلي </t>
+  </si>
+  <si>
+    <t>ناجي بن فارس العمور الدوسري</t>
+  </si>
+  <si>
+    <t>محمد بن بندر سعيد المسيب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تركي محمد ناصر القحطاني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">غازي سعد الحارثي </t>
+  </si>
+  <si>
+    <t>عبدالله حسام عبدالله الهياف</t>
+  </si>
+  <si>
+    <t>0561009862</t>
+  </si>
+  <si>
+    <t>0505224200</t>
+  </si>
+  <si>
+    <t>0554875545</t>
+  </si>
+  <si>
+    <t>0567811836</t>
+  </si>
+  <si>
+    <t>0502616653</t>
+  </si>
+  <si>
+    <t>0533921620</t>
+  </si>
+  <si>
+    <t>0533616932</t>
+  </si>
+  <si>
+    <t>0556068480</t>
+  </si>
+  <si>
+    <t>0599851211</t>
+  </si>
+  <si>
+    <t>0507494570</t>
+  </si>
+  <si>
+    <t>0533190947</t>
+  </si>
+  <si>
+    <t>0531965761</t>
+  </si>
+  <si>
+    <t>0509260760</t>
+  </si>
+  <si>
+    <t>0533230219</t>
+  </si>
+  <si>
+    <t>0598719728</t>
+  </si>
+  <si>
+    <t>0545704487</t>
+  </si>
+  <si>
+    <t>0504721596</t>
+  </si>
+  <si>
+    <t>0556583390</t>
+  </si>
+  <si>
+    <t>0566410360</t>
+  </si>
+  <si>
+    <t>0539086455</t>
+  </si>
+  <si>
+    <t>0558247160</t>
+  </si>
+  <si>
+    <t>0546912414</t>
+  </si>
+  <si>
+    <t>0503101184</t>
+  </si>
+  <si>
+    <t>0553233146</t>
+  </si>
+  <si>
+    <t>0508965536</t>
+  </si>
+  <si>
+    <t>0505111356</t>
+  </si>
+  <si>
+    <t>0557884431</t>
+  </si>
+  <si>
+    <t>0553235147</t>
+  </si>
+  <si>
+    <t>0558288082</t>
+  </si>
+  <si>
+    <t>0556070184</t>
+  </si>
+  <si>
+    <t>0591459784</t>
+  </si>
+  <si>
+    <t>0592008672</t>
+  </si>
+  <si>
+    <t>0500232126</t>
+  </si>
+  <si>
+    <t>0567806182</t>
+  </si>
+  <si>
+    <t>0566873056</t>
+  </si>
+  <si>
+    <t>0597929311</t>
+  </si>
+  <si>
+    <t>0551779616</t>
+  </si>
+  <si>
+    <t>0503740726</t>
+  </si>
+  <si>
+    <t>المتوسط</t>
+  </si>
+  <si>
+    <t>النهائي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الثالث </t>
+  </si>
+  <si>
+    <t>الثاني</t>
+  </si>
+  <si>
+    <t>الاول</t>
+  </si>
+  <si>
+    <t>الثامن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأول </t>
+  </si>
+  <si>
+    <t>الأول</t>
+  </si>
+  <si>
+    <t>الرابع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السابع </t>
+  </si>
+  <si>
+    <t>السابع</t>
+  </si>
+  <si>
+    <t>السادس</t>
+  </si>
+  <si>
+    <t>depart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +339,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,14 +377,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,197 +759,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4451221</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4450336</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4451260</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4451111</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4451038</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4450884</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4450735</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4451062</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4450431</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4450377</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4451256</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4450198</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4450087</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4450053</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="5">
+        <v>559052910</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4450071</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4450339</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5">
+        <v>540822711</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <v>450396</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4450944</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4450081</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4450027</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4440365</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4450392</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="B24" s="4">
+        <v>445870</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4450157</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="D25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4450902</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4450649</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
+      <c r="D27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4450978</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4450957</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4451267</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4451173</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4451050</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4450629</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4451399</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4450231</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4450988</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4451017</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4450875</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4450149</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4451479</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4450571</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
